--- a/src/ScenarioData_GHGTarget.xlsx
+++ b/src/ScenarioData_GHGTarget.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinm\Documents\ESOM Heat Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinm\Documents\BENOPT-HEAT (KonditorGas)\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9645" windowHeight="14370" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9645" windowHeight="14370"/>
   </bookViews>
   <sheets>
     <sheet name="80%_95%" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Energiebedingt 80%</t>
   </si>
@@ -82,9 +82,6 @@
     <t>UBA 2011:</t>
   </si>
   <si>
-    <t>Bensim 2011:</t>
-  </si>
-  <si>
     <t>Klimaschutzplan 2014:</t>
   </si>
   <si>
@@ -101,6 +98,15 @@
   </si>
   <si>
     <t>Emissionen in 2015 sind bestimmt durch Anzahl Anlagen in 2015 und der Genauigkeit der Emissionsfaktoren! Kontrolle, wenn alle Teilmärkte definiert sind!</t>
+  </si>
+  <si>
+    <t>Wärme 100%</t>
+  </si>
+  <si>
+    <t>BenOpt 2020:</t>
+  </si>
+  <si>
+    <t>Wärme 95% 2045</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +501,7 @@
     <col min="2" max="2" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -552,8 +558,16 @@
         <v>11</v>
       </c>
       <c r="AB1" s="9"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="9"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1990</v>
       </c>
@@ -648,8 +662,22 @@
         <f>187</f>
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2" s="1">
+        <v>1990</v>
+      </c>
+      <c r="AD2" s="2">
+        <f>132+88+187+41.9</f>
+        <v>448.9</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1990</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>132+88+187+41.9</f>
+        <v>448.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -744,8 +772,22 @@
         <f>130</f>
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AD3" s="2">
+        <f>119+54+130+25.5</f>
+        <v>328.5</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AF3" s="2">
+        <f>119+54+130+25.5</f>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -840,8 +882,22 @@
         <f>125</f>
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>107+48+125+40.5</f>
+        <v>320.5</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="AF4" s="2">
+        <f>107+48+125+40.5</f>
+        <v>320.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -936,8 +992,22 @@
         <f>127</f>
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5" s="1">
+        <v>2015</v>
+      </c>
+      <c r="AD5" s="2">
+        <f>86+42+127+35.9</f>
+        <v>290.89999999999998</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>2015</v>
+      </c>
+      <c r="AF5" s="2">
+        <f>86+42+127+35.9</f>
+        <v>290.89999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -1032,8 +1102,22 @@
         <f>AB2*0.6</f>
         <v>112.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="1">
+        <v>2030</v>
+      </c>
+      <c r="AD6" s="2">
+        <f>AD2*0.41</f>
+        <v>184.04899999999998</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>2030</v>
+      </c>
+      <c r="AF6" s="2">
+        <f>AF2*0.41</f>
+        <v>184.04899999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -1116,8 +1200,21 @@
         <f>AB2*0.41</f>
         <v>76.67</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AF7" s="2">
+        <f>AF2*0.03</f>
+        <v>13.466999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -1174,8 +1271,21 @@
         <f>AB2*0.05</f>
         <v>9.35</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8" s="5">
+        <v>2050</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>2050</v>
+      </c>
+      <c r="AF8" s="2">
+        <f>AF2*0.03</f>
+        <v>13.466999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -1219,7 +1329,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -1263,7 +1373,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -1311,7 +1421,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -1355,7 +1465,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -1403,7 +1513,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -1451,7 +1561,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2003</v>
       </c>
@@ -1499,7 +1609,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2004</v>
       </c>
@@ -2013,7 +2123,14 @@
       <c r="B33" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -2025,11 +2142,6 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2040,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,11 +2163,11 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" t="s">
@@ -2180,7 +2292,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -2209,7 +2321,7 @@
     </row>
     <row r="15" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -2231,7 +2343,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
         <v>300</v>
@@ -2241,7 +2353,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>255.2</v>
@@ -2251,7 +2363,10 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
